--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.054373</v>
+        <v>0.05524200000000001</v>
       </c>
       <c r="H2">
-        <v>0.163119</v>
+        <v>0.165726</v>
       </c>
       <c r="I2">
-        <v>0.006530015879180835</v>
+        <v>0.006851115624430413</v>
       </c>
       <c r="J2">
-        <v>0.006530015879180836</v>
+        <v>0.006851115624430412</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.006825333333333333</v>
+        <v>0.1076436666666667</v>
       </c>
       <c r="N2">
-        <v>0.020476</v>
+        <v>0.322931</v>
       </c>
       <c r="O2">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="P2">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="Q2">
-        <v>0.0003711138493333333</v>
+        <v>0.005946451434000001</v>
       </c>
       <c r="R2">
-        <v>0.003340024644</v>
+        <v>0.05351806290600001</v>
       </c>
       <c r="S2">
-        <v>1.460119885076924E-06</v>
+        <v>2.582450780121068E-05</v>
       </c>
       <c r="T2">
-        <v>1.460119885076924E-06</v>
+        <v>2.582450780121068E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.054373</v>
+        <v>0.05524200000000001</v>
       </c>
       <c r="H3">
-        <v>0.163119</v>
+        <v>0.165726</v>
       </c>
       <c r="I3">
-        <v>0.006530015879180835</v>
+        <v>0.006851115624430413</v>
       </c>
       <c r="J3">
-        <v>0.006530015879180836</v>
+        <v>0.006851115624430412</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.905103</v>
+        <v>10.27289266666667</v>
       </c>
       <c r="N3">
-        <v>29.715309</v>
+        <v>30.818678</v>
       </c>
       <c r="O3">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465130999</v>
       </c>
       <c r="P3">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465131</v>
       </c>
       <c r="Q3">
-        <v>0.538570165419</v>
+        <v>0.567495136692</v>
       </c>
       <c r="R3">
-        <v>4.847131488771001</v>
+        <v>5.107456230228</v>
       </c>
       <c r="S3">
-        <v>0.002118964327119813</v>
+        <v>0.002464542550681104</v>
       </c>
       <c r="T3">
-        <v>0.002118964327119814</v>
+        <v>0.002464542550681105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>23</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.05524200000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.165726</v>
+      </c>
+      <c r="I4">
+        <v>0.006851115624430413</v>
+      </c>
+      <c r="J4">
+        <v>0.006851115624430412</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.054373</v>
-      </c>
-      <c r="H4">
-        <v>0.163119</v>
-      </c>
-      <c r="I4">
-        <v>0.006530015879180835</v>
-      </c>
-      <c r="J4">
-        <v>0.006530015879180836</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.08116466666666668</v>
+        <v>0.1500163333333333</v>
       </c>
       <c r="N4">
-        <v>0.243494</v>
+        <v>0.450049</v>
       </c>
       <c r="O4">
-        <v>0.002658994392463069</v>
+        <v>0.00525316230743493</v>
       </c>
       <c r="P4">
-        <v>0.002658994392463069</v>
+        <v>0.005253162307434931</v>
       </c>
       <c r="Q4">
-        <v>0.004413166420666668</v>
+        <v>0.008287202286</v>
       </c>
       <c r="R4">
-        <v>0.03971849778600001</v>
+        <v>0.074584820574</v>
       </c>
       <c r="S4">
-        <v>1.736327560543664E-05</v>
+        <v>3.599002236213637E-05</v>
       </c>
       <c r="T4">
-        <v>1.736327560543664E-05</v>
+        <v>3.599002236213637E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.054373</v>
+        <v>0.05524200000000001</v>
       </c>
       <c r="H5">
-        <v>0.163119</v>
+        <v>0.165726</v>
       </c>
       <c r="I5">
-        <v>0.006530015879180835</v>
+        <v>0.006851115624430413</v>
       </c>
       <c r="J5">
-        <v>0.006530015879180836</v>
+        <v>0.006851115624430412</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.955061333333333</v>
+        <v>4.089341</v>
       </c>
       <c r="N5">
-        <v>11.865184</v>
+        <v>12.268023</v>
       </c>
       <c r="O5">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671011</v>
       </c>
       <c r="P5">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671012</v>
       </c>
       <c r="Q5">
-        <v>0.2150485498773334</v>
+        <v>0.225903375522</v>
       </c>
       <c r="R5">
-        <v>1.935436948896</v>
+        <v>2.033130379698</v>
       </c>
       <c r="S5">
-        <v>0.0008460925521828755</v>
+        <v>0.0009810630000493354</v>
       </c>
       <c r="T5">
-        <v>0.0008460925521828756</v>
+        <v>0.0009810630000493354</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.054373</v>
+        <v>0.05524200000000001</v>
       </c>
       <c r="H6">
-        <v>0.163119</v>
+        <v>0.165726</v>
       </c>
       <c r="I6">
-        <v>0.006530015879180835</v>
+        <v>0.006851115624430413</v>
       </c>
       <c r="J6">
-        <v>0.006530015879180836</v>
+        <v>0.006851115624430412</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.576418</v>
+        <v>13.93744466666667</v>
       </c>
       <c r="N6">
-        <v>49.729254</v>
+        <v>41.812334</v>
       </c>
       <c r="O6">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743025</v>
       </c>
       <c r="P6">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743027</v>
       </c>
       <c r="Q6">
-        <v>0.9013095759140001</v>
+        <v>0.7699323182760001</v>
       </c>
       <c r="R6">
-        <v>8.111786183226002</v>
+        <v>6.929390864484001</v>
       </c>
       <c r="S6">
-        <v>0.003546135604387633</v>
+        <v>0.003343695543536626</v>
       </c>
       <c r="T6">
-        <v>0.003546135604387634</v>
+        <v>0.003343695543536626</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>4.701634</v>
       </c>
       <c r="I7">
-        <v>0.1882168519798215</v>
+        <v>0.1943656285540788</v>
       </c>
       <c r="J7">
-        <v>0.1882168519798215</v>
+        <v>0.1943656285540788</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.006825333333333333</v>
+        <v>0.1076436666666667</v>
       </c>
       <c r="N7">
-        <v>0.020476</v>
+        <v>0.322931</v>
       </c>
       <c r="O7">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="P7">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="Q7">
-        <v>0.01069673975377778</v>
+        <v>0.1687003743615556</v>
       </c>
       <c r="R7">
-        <v>0.096270657784</v>
+        <v>1.518303369254</v>
       </c>
       <c r="S7">
-        <v>4.2085528330567E-05</v>
+        <v>0.0007326393197895161</v>
       </c>
       <c r="T7">
-        <v>4.208552833056701E-05</v>
+        <v>0.0007326393197895161</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>4.701634</v>
       </c>
       <c r="I8">
-        <v>0.1882168519798215</v>
+        <v>0.1943656285540788</v>
       </c>
       <c r="J8">
-        <v>0.1882168519798215</v>
+        <v>0.1943656285540788</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.905103</v>
+        <v>10.27289266666667</v>
       </c>
       <c r="N8">
-        <v>29.715309</v>
+        <v>30.818678</v>
       </c>
       <c r="O8">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465130999</v>
       </c>
       <c r="P8">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465131</v>
       </c>
       <c r="Q8">
-        <v>15.523389679434</v>
+        <v>16.09979381331689</v>
       </c>
       <c r="R8">
-        <v>139.710507114906</v>
+        <v>144.898144319852</v>
       </c>
       <c r="S8">
-        <v>0.06107562408532197</v>
+        <v>0.06991888448842669</v>
       </c>
       <c r="T8">
-        <v>0.06107562408532199</v>
+        <v>0.0699188844884267</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>4.701634</v>
       </c>
       <c r="I9">
-        <v>0.1882168519798215</v>
+        <v>0.1943656285540788</v>
       </c>
       <c r="J9">
-        <v>0.1882168519798215</v>
+        <v>0.1943656285540788</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.08116466666666668</v>
+        <v>0.1500163333333333</v>
       </c>
       <c r="N9">
-        <v>0.243494</v>
+        <v>0.450049</v>
       </c>
       <c r="O9">
-        <v>0.002658994392463069</v>
+        <v>0.00525316230743493</v>
       </c>
       <c r="P9">
-        <v>0.002658994392463069</v>
+        <v>0.005253162307434931</v>
       </c>
       <c r="Q9">
-        <v>0.1272021854662223</v>
+        <v>0.2351072977851111</v>
       </c>
       <c r="R9">
-        <v>1.144819669196</v>
+        <v>2.115965680066</v>
       </c>
       <c r="S9">
-        <v>0.000500467553981397</v>
+        <v>0.001021034193781185</v>
       </c>
       <c r="T9">
-        <v>0.000500467553981397</v>
+        <v>0.001021034193781185</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>4.701634</v>
       </c>
       <c r="I10">
-        <v>0.1882168519798215</v>
+        <v>0.1943656285540788</v>
       </c>
       <c r="J10">
-        <v>0.1882168519798215</v>
+        <v>0.1943656285540788</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.955061333333333</v>
+        <v>4.089341</v>
       </c>
       <c r="N10">
-        <v>11.865184</v>
+        <v>12.268023</v>
       </c>
       <c r="O10">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671011</v>
       </c>
       <c r="P10">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671012</v>
       </c>
       <c r="Q10">
-        <v>6.198416945628445</v>
+        <v>6.408861561064668</v>
       </c>
       <c r="R10">
-        <v>55.785752510656</v>
+        <v>57.679754049582</v>
       </c>
       <c r="S10">
-        <v>0.02438721124142363</v>
+        <v>0.02783268260365879</v>
       </c>
       <c r="T10">
-        <v>0.02438721124142364</v>
+        <v>0.0278326826036588</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>4.701634</v>
       </c>
       <c r="I11">
-        <v>0.1882168519798215</v>
+        <v>0.1943656285540788</v>
       </c>
       <c r="J11">
-        <v>0.1882168519798215</v>
+        <v>0.1943656285540788</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.576418</v>
+        <v>13.93744466666667</v>
       </c>
       <c r="N11">
-        <v>49.729254</v>
+        <v>41.812334</v>
       </c>
       <c r="O11">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743025</v>
       </c>
       <c r="P11">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743027</v>
       </c>
       <c r="Q11">
-        <v>25.97875015567067</v>
+        <v>21.84292123930623</v>
       </c>
       <c r="R11">
-        <v>233.808751401036</v>
+        <v>196.586291153756</v>
       </c>
       <c r="S11">
-        <v>0.102211463570764</v>
+        <v>0.09486038794842258</v>
       </c>
       <c r="T11">
-        <v>0.102211463570764</v>
+        <v>0.09486038794842259</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.849563</v>
+        <v>0.3059026666666667</v>
       </c>
       <c r="H12">
-        <v>2.548689</v>
+        <v>0.917708</v>
       </c>
       <c r="I12">
-        <v>0.1020296816501666</v>
+        <v>0.03793806413878803</v>
       </c>
       <c r="J12">
-        <v>0.1020296816501666</v>
+        <v>0.03793806413878802</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.006825333333333333</v>
+        <v>0.1076436666666667</v>
       </c>
       <c r="N12">
-        <v>0.020476</v>
+        <v>0.322931</v>
       </c>
       <c r="O12">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="P12">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="Q12">
-        <v>0.005798550662666666</v>
+        <v>0.03292848468311112</v>
       </c>
       <c r="R12">
-        <v>0.05218695596399999</v>
+        <v>0.296356362148</v>
       </c>
       <c r="S12">
-        <v>2.281396704109773E-05</v>
+        <v>0.0001430032548015003</v>
       </c>
       <c r="T12">
-        <v>2.281396704109773E-05</v>
+        <v>0.0001430032548015003</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.849563</v>
+        <v>0.3059026666666667</v>
       </c>
       <c r="H13">
-        <v>2.548689</v>
+        <v>0.917708</v>
       </c>
       <c r="I13">
-        <v>0.1020296816501666</v>
+        <v>0.03793806413878803</v>
       </c>
       <c r="J13">
-        <v>0.1020296816501666</v>
+        <v>0.03793806413878802</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.905103</v>
+        <v>10.27289266666667</v>
       </c>
       <c r="N13">
-        <v>29.715309</v>
+        <v>30.818678</v>
       </c>
       <c r="O13">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465130999</v>
       </c>
       <c r="P13">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465131</v>
       </c>
       <c r="Q13">
-        <v>8.415009019989</v>
+        <v>3.142505261113777</v>
       </c>
       <c r="R13">
-        <v>75.735081179901</v>
+        <v>28.282547350024</v>
       </c>
       <c r="S13">
-        <v>0.03310822817650101</v>
+        <v>0.01364740846397339</v>
       </c>
       <c r="T13">
-        <v>0.03310822817650102</v>
+        <v>0.01364740846397339</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.849563</v>
+        <v>0.3059026666666667</v>
       </c>
       <c r="H14">
-        <v>2.548689</v>
+        <v>0.917708</v>
       </c>
       <c r="I14">
-        <v>0.1020296816501666</v>
+        <v>0.03793806413878803</v>
       </c>
       <c r="J14">
-        <v>0.1020296816501666</v>
+        <v>0.03793806413878802</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.08116466666666668</v>
+        <v>0.1500163333333333</v>
       </c>
       <c r="N14">
-        <v>0.243494</v>
+        <v>0.450049</v>
       </c>
       <c r="O14">
-        <v>0.002658994392463069</v>
+        <v>0.00525316230743493</v>
       </c>
       <c r="P14">
-        <v>0.002658994392463069</v>
+        <v>0.005253162307434931</v>
       </c>
       <c r="Q14">
-        <v>0.06895449770733333</v>
+        <v>0.04589039641022222</v>
       </c>
       <c r="R14">
-        <v>0.6205904793660001</v>
+        <v>0.413013567692</v>
       </c>
       <c r="S14">
-        <v>0.000271296351372585</v>
+        <v>0.0001992948085509301</v>
       </c>
       <c r="T14">
-        <v>0.000271296351372585</v>
+        <v>0.0001992948085509301</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.849563</v>
+        <v>0.3059026666666667</v>
       </c>
       <c r="H15">
-        <v>2.548689</v>
+        <v>0.917708</v>
       </c>
       <c r="I15">
-        <v>0.1020296816501666</v>
+        <v>0.03793806413878803</v>
       </c>
       <c r="J15">
-        <v>0.1020296816501666</v>
+        <v>0.03793806413878802</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.955061333333333</v>
+        <v>4.089341</v>
       </c>
       <c r="N15">
-        <v>11.865184</v>
+        <v>12.268023</v>
       </c>
       <c r="O15">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671011</v>
       </c>
       <c r="P15">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671012</v>
       </c>
       <c r="Q15">
-        <v>3.360073771530666</v>
+        <v>1.250940316809333</v>
       </c>
       <c r="R15">
-        <v>30.240663943776</v>
+        <v>11.258462851284</v>
       </c>
       <c r="S15">
-        <v>0.01321996076931823</v>
+        <v>0.00543263799071525</v>
       </c>
       <c r="T15">
-        <v>0.01321996076931823</v>
+        <v>0.00543263799071525</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.849563</v>
+        <v>0.3059026666666667</v>
       </c>
       <c r="H16">
-        <v>2.548689</v>
+        <v>0.917708</v>
       </c>
       <c r="I16">
-        <v>0.1020296816501666</v>
+        <v>0.03793806413878803</v>
       </c>
       <c r="J16">
-        <v>0.1020296816501666</v>
+        <v>0.03793806413878802</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.576418</v>
+        <v>13.93744466666667</v>
       </c>
       <c r="N16">
-        <v>49.729254</v>
+        <v>41.812334</v>
       </c>
       <c r="O16">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743025</v>
       </c>
       <c r="P16">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743027</v>
       </c>
       <c r="Q16">
-        <v>14.082711405334</v>
+        <v>4.263501490052444</v>
       </c>
       <c r="R16">
-        <v>126.744402648006</v>
+        <v>38.371513410472</v>
       </c>
       <c r="S16">
-        <v>0.05540738238593365</v>
+        <v>0.01851571962074695</v>
       </c>
       <c r="T16">
-        <v>0.05540738238593366</v>
+        <v>0.01851571962074695</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.115704</v>
+        <v>0.03313</v>
       </c>
       <c r="H17">
-        <v>0.347112</v>
+        <v>0.09939000000000001</v>
       </c>
       <c r="I17">
-        <v>0.01389566434231584</v>
+        <v>0.004108784269892103</v>
       </c>
       <c r="J17">
-        <v>0.01389566434231584</v>
+        <v>0.004108784269892103</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.006825333333333333</v>
+        <v>0.1076436666666667</v>
       </c>
       <c r="N17">
-        <v>0.020476</v>
+        <v>0.322931</v>
       </c>
       <c r="O17">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="P17">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="Q17">
-        <v>0.0007897183679999998</v>
+        <v>0.003566234676666667</v>
       </c>
       <c r="R17">
-        <v>0.007107465311999999</v>
+        <v>0.03209611209</v>
       </c>
       <c r="S17">
-        <v>3.107088282473661E-06</v>
+        <v>1.548759899087849E-05</v>
       </c>
       <c r="T17">
-        <v>3.107088282473662E-06</v>
+        <v>1.548759899087849E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.115704</v>
+        <v>0.03313</v>
       </c>
       <c r="H18">
-        <v>0.347112</v>
+        <v>0.09939000000000001</v>
       </c>
       <c r="I18">
-        <v>0.01389566434231584</v>
+        <v>0.004108784269892103</v>
       </c>
       <c r="J18">
-        <v>0.01389566434231584</v>
+        <v>0.004108784269892103</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.905103</v>
+        <v>10.27289266666667</v>
       </c>
       <c r="N18">
-        <v>29.715309</v>
+        <v>30.818678</v>
       </c>
       <c r="O18">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465130999</v>
       </c>
       <c r="P18">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465131</v>
       </c>
       <c r="Q18">
-        <v>1.146060037512</v>
+        <v>0.3403409340466667</v>
       </c>
       <c r="R18">
-        <v>10.314540337608</v>
+        <v>3.06306840642</v>
       </c>
       <c r="S18">
-        <v>0.004509088122874787</v>
+        <v>0.001478047404222602</v>
       </c>
       <c r="T18">
-        <v>0.004509088122874788</v>
+        <v>0.001478047404222602</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03313</v>
+      </c>
+      <c r="H19">
+        <v>0.09939000000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.004108784269892103</v>
+      </c>
+      <c r="J19">
+        <v>0.004108784269892103</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="L19">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.115704</v>
-      </c>
-      <c r="H19">
-        <v>0.347112</v>
-      </c>
-      <c r="I19">
-        <v>0.01389566434231584</v>
-      </c>
-      <c r="J19">
-        <v>0.01389566434231584</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M19">
-        <v>0.08116466666666668</v>
+        <v>0.1500163333333333</v>
       </c>
       <c r="N19">
-        <v>0.243494</v>
+        <v>0.450049</v>
       </c>
       <c r="O19">
-        <v>0.002658994392463069</v>
+        <v>0.00525316230743493</v>
       </c>
       <c r="P19">
-        <v>0.002658994392463069</v>
+        <v>0.005253162307434931</v>
       </c>
       <c r="Q19">
-        <v>0.009391076591999999</v>
+        <v>0.004970041123333334</v>
       </c>
       <c r="R19">
-        <v>0.084519689328</v>
+        <v>0.04473037011</v>
       </c>
       <c r="S19">
-        <v>3.694849356576685E-05</v>
+        <v>2.158411065597875E-05</v>
       </c>
       <c r="T19">
-        <v>3.694849356576684E-05</v>
+        <v>2.158411065597875E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.115704</v>
+        <v>0.03313</v>
       </c>
       <c r="H20">
-        <v>0.347112</v>
+        <v>0.09939000000000001</v>
       </c>
       <c r="I20">
-        <v>0.01389566434231584</v>
+        <v>0.004108784269892103</v>
       </c>
       <c r="J20">
-        <v>0.01389566434231584</v>
+        <v>0.004108784269892103</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.955061333333333</v>
+        <v>4.089341</v>
       </c>
       <c r="N20">
-        <v>11.865184</v>
+        <v>12.268023</v>
       </c>
       <c r="O20">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671011</v>
       </c>
       <c r="P20">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671012</v>
       </c>
       <c r="Q20">
-        <v>0.4576164165119999</v>
+        <v>0.13547986733</v>
       </c>
       <c r="R20">
-        <v>4.118547748607999</v>
+        <v>1.21931880597</v>
       </c>
       <c r="S20">
-        <v>0.001800457812844011</v>
+        <v>0.0005883678576379291</v>
       </c>
       <c r="T20">
-        <v>0.001800457812844011</v>
+        <v>0.0005883678576379292</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.115704</v>
+        <v>0.03313</v>
       </c>
       <c r="H21">
-        <v>0.347112</v>
+        <v>0.09939000000000001</v>
       </c>
       <c r="I21">
-        <v>0.01389566434231584</v>
+        <v>0.004108784269892103</v>
       </c>
       <c r="J21">
-        <v>0.01389566434231584</v>
+        <v>0.004108784269892103</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.576418</v>
+        <v>13.93744466666667</v>
       </c>
       <c r="N21">
-        <v>49.729254</v>
+        <v>41.812334</v>
       </c>
       <c r="O21">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743025</v>
       </c>
       <c r="P21">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743027</v>
       </c>
       <c r="Q21">
-        <v>1.917957868272</v>
+        <v>0.4617475418066667</v>
       </c>
       <c r="R21">
-        <v>17.261620814448</v>
+        <v>4.15572787626</v>
       </c>
       <c r="S21">
-        <v>0.007546062824748802</v>
+        <v>0.002005297298384715</v>
       </c>
       <c r="T21">
-        <v>0.007546062824748803</v>
+        <v>0.002005297298384715</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.016919666666666</v>
+        <v>5.575577333333332</v>
       </c>
       <c r="H22">
-        <v>12.050759</v>
+        <v>16.726732</v>
       </c>
       <c r="I22">
-        <v>0.4824186491223055</v>
+        <v>0.691483381912676</v>
       </c>
       <c r="J22">
-        <v>0.4824186491223055</v>
+        <v>0.691483381912676</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,28 +1801,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.006825333333333333</v>
+        <v>0.1076436666666667</v>
       </c>
       <c r="N22">
-        <v>0.020476</v>
+        <v>0.322931</v>
       </c>
       <c r="O22">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="P22">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="Q22">
-        <v>0.02741681569822222</v>
+        <v>0.6001755879435555</v>
       </c>
       <c r="R22">
-        <v>0.2467513412839999</v>
+        <v>5.401580291491999</v>
       </c>
       <c r="S22">
-        <v>0.0001078694256718696</v>
+        <v>0.002606468635113139</v>
       </c>
       <c r="T22">
-        <v>0.0001078694256718697</v>
+        <v>0.002606468635113139</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.016919666666666</v>
+        <v>5.575577333333332</v>
       </c>
       <c r="H23">
-        <v>12.050759</v>
+        <v>16.726732</v>
       </c>
       <c r="I23">
-        <v>0.4824186491223055</v>
+        <v>0.691483381912676</v>
       </c>
       <c r="J23">
-        <v>0.4824186491223055</v>
+        <v>0.691483381912676</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.905103</v>
+        <v>10.27289266666667</v>
       </c>
       <c r="N23">
-        <v>29.715309</v>
+        <v>30.818678</v>
       </c>
       <c r="O23">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465130999</v>
       </c>
       <c r="P23">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465131</v>
       </c>
       <c r="Q23">
-        <v>39.788003041059</v>
+        <v>57.27730750003288</v>
       </c>
       <c r="R23">
-        <v>358.092027369531</v>
+        <v>515.4957675002959</v>
       </c>
       <c r="S23">
-        <v>0.1565429437142088</v>
+        <v>0.2487463810617479</v>
       </c>
       <c r="T23">
-        <v>0.1565429437142088</v>
+        <v>0.248746381061748</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.016919666666666</v>
+        <v>5.575577333333332</v>
       </c>
       <c r="H24">
-        <v>12.050759</v>
+        <v>16.726732</v>
       </c>
       <c r="I24">
-        <v>0.4824186491223055</v>
+        <v>0.691483381912676</v>
       </c>
       <c r="J24">
-        <v>0.4824186491223055</v>
+        <v>0.691483381912676</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.08116466666666668</v>
+        <v>0.1500163333333333</v>
       </c>
       <c r="N24">
-        <v>0.243494</v>
+        <v>0.450049</v>
       </c>
       <c r="O24">
-        <v>0.002658994392463069</v>
+        <v>0.00525316230743493</v>
       </c>
       <c r="P24">
-        <v>0.002658994392463069</v>
+        <v>0.005253162307434931</v>
       </c>
       <c r="Q24">
-        <v>0.3260319457717778</v>
+        <v>0.8364276677631109</v>
       </c>
       <c r="R24">
-        <v>2.934287511946</v>
+        <v>7.527849009867999</v>
       </c>
       <c r="S24">
-        <v>0.001282748482835819</v>
+        <v>0.003632474438081302</v>
       </c>
       <c r="T24">
-        <v>0.001282748482835819</v>
+        <v>0.003632474438081303</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.016919666666666</v>
+        <v>5.575577333333332</v>
       </c>
       <c r="H25">
-        <v>12.050759</v>
+        <v>16.726732</v>
       </c>
       <c r="I25">
-        <v>0.4824186491223055</v>
+        <v>0.691483381912676</v>
       </c>
       <c r="J25">
-        <v>0.4824186491223055</v>
+        <v>0.691483381912676</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.955061333333333</v>
+        <v>4.089341</v>
       </c>
       <c r="N25">
-        <v>11.865184</v>
+        <v>12.268023</v>
       </c>
       <c r="O25">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671011</v>
       </c>
       <c r="P25">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671012</v>
       </c>
       <c r="Q25">
-        <v>15.88716365273955</v>
+        <v>22.80043698787066</v>
       </c>
       <c r="R25">
-        <v>142.984472874656</v>
+        <v>205.203932890836</v>
       </c>
       <c r="S25">
-        <v>0.06250686577315184</v>
+        <v>0.09901872896794237</v>
       </c>
       <c r="T25">
-        <v>0.06250686577315184</v>
+        <v>0.09901872896794238</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.016919666666666</v>
+        <v>5.575577333333332</v>
       </c>
       <c r="H26">
-        <v>12.050759</v>
+        <v>16.726732</v>
       </c>
       <c r="I26">
-        <v>0.4824186491223055</v>
+        <v>0.691483381912676</v>
       </c>
       <c r="J26">
-        <v>0.4824186491223055</v>
+        <v>0.691483381912676</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.576418</v>
+        <v>13.93744466666667</v>
       </c>
       <c r="N26">
-        <v>49.729254</v>
+        <v>41.812334</v>
       </c>
       <c r="O26">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743025</v>
       </c>
       <c r="P26">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743027</v>
       </c>
       <c r="Q26">
-        <v>66.58613946708734</v>
+        <v>77.7093005680542</v>
       </c>
       <c r="R26">
-        <v>599.2752552037861</v>
+        <v>699.383705112488</v>
       </c>
       <c r="S26">
-        <v>0.2619782217264371</v>
+        <v>0.3374793288097912</v>
       </c>
       <c r="T26">
-        <v>0.2619782217264372</v>
+        <v>0.3374793288097913</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.722855</v>
+        <v>0.526149</v>
       </c>
       <c r="H27">
-        <v>5.168565</v>
+        <v>1.578447</v>
       </c>
       <c r="I27">
-        <v>0.2069091370262096</v>
+        <v>0.06525302550013463</v>
       </c>
       <c r="J27">
-        <v>0.2069091370262097</v>
+        <v>0.06525302550013462</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2111,28 +2111,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.006825333333333333</v>
+        <v>0.1076436666666667</v>
       </c>
       <c r="N27">
-        <v>0.020476</v>
+        <v>0.322931</v>
       </c>
       <c r="O27">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="P27">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="Q27">
-        <v>0.01175905966</v>
+        <v>0.05663660757300001</v>
       </c>
       <c r="R27">
-        <v>0.10583153694</v>
+        <v>0.509729468157</v>
       </c>
       <c r="S27">
-        <v>4.626514712456925E-05</v>
+        <v>0.0002459639215650989</v>
       </c>
       <c r="T27">
-        <v>4.626514712456925E-05</v>
+        <v>0.0002459639215650989</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.722855</v>
+        <v>0.526149</v>
       </c>
       <c r="H28">
-        <v>5.168565</v>
+        <v>1.578447</v>
       </c>
       <c r="I28">
-        <v>0.2069091370262096</v>
+        <v>0.06525302550013463</v>
       </c>
       <c r="J28">
-        <v>0.2069091370262097</v>
+        <v>0.06525302550013462</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.905103</v>
+        <v>10.27289266666667</v>
       </c>
       <c r="N28">
-        <v>29.715309</v>
+        <v>30.818678</v>
       </c>
       <c r="O28">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465130999</v>
       </c>
       <c r="P28">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465131</v>
       </c>
       <c r="Q28">
-        <v>17.065056229065</v>
+        <v>5.405072203673999</v>
       </c>
       <c r="R28">
-        <v>153.585506061585</v>
+        <v>48.645649833066</v>
       </c>
       <c r="S28">
-        <v>0.06714119665642884</v>
+        <v>0.02347338254404823</v>
       </c>
       <c r="T28">
-        <v>0.06714119665642884</v>
+        <v>0.02347338254404823</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.722855</v>
+        <v>0.526149</v>
       </c>
       <c r="H29">
-        <v>5.168565</v>
+        <v>1.578447</v>
       </c>
       <c r="I29">
-        <v>0.2069091370262096</v>
+        <v>0.06525302550013463</v>
       </c>
       <c r="J29">
-        <v>0.2069091370262097</v>
+        <v>0.06525302550013462</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.08116466666666668</v>
+        <v>0.1500163333333333</v>
       </c>
       <c r="N29">
-        <v>0.243494</v>
+        <v>0.450049</v>
       </c>
       <c r="O29">
-        <v>0.002658994392463069</v>
+        <v>0.00525316230743493</v>
       </c>
       <c r="P29">
-        <v>0.002658994392463069</v>
+        <v>0.005253162307434931</v>
       </c>
       <c r="Q29">
-        <v>0.13983495179</v>
+        <v>0.07893094376699999</v>
       </c>
       <c r="R29">
-        <v>1.25851456611</v>
+        <v>0.7103784939029999</v>
       </c>
       <c r="S29">
-        <v>0.0005501702351020643</v>
+        <v>0.0003427847340033976</v>
       </c>
       <c r="T29">
-        <v>0.0005501702351020642</v>
+        <v>0.0003427847340033976</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.722855</v>
+        <v>0.526149</v>
       </c>
       <c r="H30">
-        <v>5.168565</v>
+        <v>1.578447</v>
       </c>
       <c r="I30">
-        <v>0.2069091370262096</v>
+        <v>0.06525302550013463</v>
       </c>
       <c r="J30">
-        <v>0.2069091370262097</v>
+        <v>0.06525302550013462</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.955061333333333</v>
+        <v>4.089341</v>
       </c>
       <c r="N30">
-        <v>11.865184</v>
+        <v>12.268023</v>
       </c>
       <c r="O30">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671011</v>
       </c>
       <c r="P30">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671012</v>
       </c>
       <c r="Q30">
-        <v>6.81399719344</v>
+        <v>2.151602677809</v>
       </c>
       <c r="R30">
-        <v>61.32597474096</v>
+        <v>19.364424100281</v>
       </c>
       <c r="S30">
-        <v>0.02680916601973457</v>
+        <v>0.009344073647097459</v>
       </c>
       <c r="T30">
-        <v>0.02680916601973458</v>
+        <v>0.009344073647097459</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.722855</v>
+        <v>0.526149</v>
       </c>
       <c r="H31">
-        <v>5.168565</v>
+        <v>1.578447</v>
       </c>
       <c r="I31">
-        <v>0.2069091370262096</v>
+        <v>0.06525302550013463</v>
       </c>
       <c r="J31">
-        <v>0.2069091370262097</v>
+        <v>0.06525302550013462</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>16.576418</v>
+        <v>13.93744466666667</v>
       </c>
       <c r="N31">
-        <v>49.729254</v>
+        <v>41.812334</v>
       </c>
       <c r="O31">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743025</v>
       </c>
       <c r="P31">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743027</v>
       </c>
       <c r="Q31">
-        <v>28.55876463339</v>
+        <v>7.333172573921999</v>
       </c>
       <c r="R31">
-        <v>257.0288817005101</v>
+        <v>65.99855316529799</v>
       </c>
       <c r="S31">
-        <v>0.1123623389678196</v>
+        <v>0.03184682065342044</v>
       </c>
       <c r="T31">
-        <v>0.1123623389678196</v>
+        <v>0.03184682065342045</v>
       </c>
     </row>
   </sheetData>
